--- a/img_user/aumza/testsys/excel_table_summary.xlsx
+++ b/img_user/aumza/testsys/excel_table_summary.xlsx
@@ -50,16 +50,16 @@
     <t>braycurtis</t>
   </si>
   <si>
-    <t>S1_1_16s_S1</t>
-  </si>
-  <si>
-    <t>S2_1_16s_S3</t>
-  </si>
-  <si>
-    <t>S3_1_16s_S5</t>
-  </si>
-  <si>
-    <t>S4_1_16s_S7</t>
+    <t>S1_1_16s</t>
+  </si>
+  <si>
+    <t>S2_1_16s</t>
+  </si>
+  <si>
+    <t>S3_1_16s</t>
+  </si>
+  <si>
+    <t>S4_1_16s</t>
   </si>
 </sst>
 </file>
@@ -462,31 +462,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0.855437</v>
+        <v>0.85533</v>
       </c>
       <c r="D2">
-        <v>0.927488</v>
+        <v>0.9273130000000001</v>
       </c>
       <c r="E2">
-        <v>0.137979</v>
+        <v>0.137468</v>
       </c>
       <c r="F2">
-        <v>0.520451</v>
+        <v>0.52346</v>
       </c>
       <c r="G2">
-        <v>0.753127</v>
+        <v>0.753785</v>
       </c>
       <c r="H2">
-        <v>0.242499</v>
+        <v>0.241708</v>
       </c>
       <c r="I2">
-        <v>0.214812</v>
+        <v>0.213834</v>
       </c>
       <c r="J2">
-        <v>0.270187</v>
+        <v>0.269582</v>
       </c>
       <c r="K2">
-        <v>0.717107</v>
+        <v>0.7157019999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -497,31 +497,31 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0.98397</v>
+        <v>0.9837630000000001</v>
       </c>
       <c r="D3">
-        <v>0.9927240000000001</v>
+        <v>0.992642</v>
       </c>
       <c r="E3">
-        <v>0.9747169999999999</v>
+        <v>0.974415</v>
       </c>
       <c r="F3">
-        <v>0.827377</v>
+        <v>0.826367</v>
       </c>
       <c r="G3">
-        <v>0.953941</v>
+        <v>0.953153</v>
       </c>
       <c r="H3">
-        <v>0.987197</v>
+        <v>0.987042</v>
       </c>
       <c r="I3">
-        <v>0.98368</v>
+        <v>0.983497</v>
       </c>
       <c r="J3">
-        <v>0.990713</v>
+        <v>0.990586</v>
       </c>
       <c r="K3">
-        <v>0.985173</v>
+        <v>0.984955</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -532,31 +532,31 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.99352</v>
+        <v>0.9933340000000001</v>
       </c>
       <c r="D4">
-        <v>0.996861</v>
+        <v>0.996781</v>
       </c>
       <c r="E4">
-        <v>0.995155</v>
+        <v>0.995058</v>
       </c>
       <c r="F4">
-        <v>0.818725</v>
+        <v>0.7691170000000001</v>
       </c>
       <c r="G4">
-        <v>0.972419</v>
+        <v>0.97198</v>
       </c>
       <c r="H4">
-        <v>0.997571</v>
+        <v>0.997523</v>
       </c>
       <c r="I4">
-        <v>0.995794</v>
+        <v>0.995731</v>
       </c>
       <c r="J4">
-        <v>0.999348</v>
+        <v>0.999314</v>
       </c>
       <c r="K4">
-        <v>0.995068</v>
+        <v>0.99496</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -567,31 +567,31 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.919648</v>
+        <v>0.920633</v>
       </c>
       <c r="D5">
-        <v>0.958465</v>
+        <v>0.9590919999999999</v>
       </c>
       <c r="E5">
-        <v>0.724783</v>
+        <v>0.726733</v>
       </c>
       <c r="F5">
-        <v>0.687317</v>
+        <v>0.683754</v>
       </c>
       <c r="G5">
-        <v>0.866748</v>
+        <v>0.867808</v>
       </c>
       <c r="H5">
-        <v>0.840434</v>
+        <v>0.841744</v>
       </c>
       <c r="I5">
-        <v>0.817321</v>
+        <v>0.8189109999999999</v>
       </c>
       <c r="J5">
-        <v>0.863546</v>
+        <v>0.864576</v>
       </c>
       <c r="K5">
-        <v>0.882666</v>
+        <v>0.882875</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -602,31 +602,31 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.9116379999999999</v>
+        <v>0.910374</v>
       </c>
       <c r="D6">
-        <v>0.956539</v>
+        <v>0.955711</v>
       </c>
       <c r="E6">
-        <v>0.712203</v>
+        <v>0.715042</v>
       </c>
       <c r="F6">
-        <v>0.659137</v>
+        <v>0.655729</v>
       </c>
       <c r="G6">
-        <v>0.858092</v>
+        <v>0.857302</v>
       </c>
       <c r="H6">
-        <v>0.831914</v>
+        <v>0.833848</v>
       </c>
       <c r="I6">
-        <v>0.808369</v>
+        <v>0.810518</v>
       </c>
       <c r="J6">
-        <v>0.855459</v>
+        <v>0.857178</v>
       </c>
       <c r="K6">
-        <v>0.870601</v>
+        <v>0.8687510000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -637,31 +637,31 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.989086</v>
+        <v>0.989404</v>
       </c>
       <c r="D7">
-        <v>0.995017</v>
+        <v>0.995159</v>
       </c>
       <c r="E7">
-        <v>0.995336</v>
+        <v>0.995292</v>
       </c>
       <c r="F7">
-        <v>0.921733</v>
+        <v>0.921063</v>
       </c>
       <c r="G7">
-        <v>0.984953</v>
+        <v>0.984569</v>
       </c>
       <c r="H7">
-        <v>0.997663</v>
+        <v>0.99764</v>
       </c>
       <c r="I7">
-        <v>0.996576</v>
+        <v>0.996544</v>
       </c>
       <c r="J7">
-        <v>0.99875</v>
+        <v>0.998737</v>
       </c>
       <c r="K7">
-        <v>0.992451</v>
+        <v>0.992609</v>
       </c>
     </row>
   </sheetData>
